--- a/results/I2_N10_T100_C275_0_P4_res.xlsx
+++ b/results/I2_N10_T100_C275_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>180.2989212663341</v>
+        <v>272.5632163890596</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02999997138977051</v>
+        <v>0.01800012588500977</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.36892126633407</v>
+        <v>40.67321638905945</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1.391236859776221</v>
+        <v>3.515920931989228</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1.391236859776221</v>
+        <v>3.515920931989228</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>142.93</v>
+        <v>231.89</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,12 +606,34 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -656,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -678,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -700,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -711,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -722,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -733,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -744,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -766,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -788,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1017,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>32.61192465059682</v>
+        <v>35.46541289070538</v>
       </c>
     </row>
     <row r="4">
@@ -1025,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>34.69770569366315</v>
       </c>
     </row>
     <row r="5">
@@ -1033,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>37.91791988218178</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1041,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.31224998648503</v>
+        <v>38.43347677669323</v>
       </c>
     </row>
     <row r="7">
@@ -1049,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36.09699127290008</v>
+        <v>31.94987179065701</v>
       </c>
     </row>
     <row r="8">
@@ -1057,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>37.56906461133153</v>
+        <v>30.34885527085025</v>
       </c>
     </row>
     <row r="9">
@@ -1065,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>32.01159140980468</v>
+        <v>34.86507964991324</v>
       </c>
     </row>
     <row r="10">
@@ -1081,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>34.14711948224307</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
@@ -1089,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>30</v>
+        <v>34.87971820301381</v>
       </c>
     </row>
     <row r="13">
@@ -1097,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>40.23664798180882</v>
+        <v>37.27819014430416</v>
       </c>
     </row>
     <row r="14">
@@ -1105,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>37.28210730097497</v>
+        <v>41.94939770868245</v>
       </c>
     </row>
     <row r="15">
@@ -1113,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>37.94859027624736</v>
+        <v>40.80207851635592</v>
       </c>
     </row>
   </sheetData>
@@ -1127,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,10 +1181,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1173,10 +1195,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1187,15 +1209,43 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>12</v>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>12</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1298,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>250.970000000001</v>
+        <v>260.9450000000011</v>
       </c>
     </row>
     <row r="8">
@@ -1309,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>260.9900000000009</v>
+        <v>281.47</v>
       </c>
     </row>
     <row r="9">
@@ -1320,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>252.975000000001</v>
+        <v>251.0650000000011</v>
       </c>
     </row>
     <row r="10">
@@ -1331,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>269.580000000001</v>
+        <v>272.6950000000011</v>
       </c>
     </row>
     <row r="11">
@@ -1342,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>250.575000000001</v>
+        <v>256.5900000000011</v>
       </c>
     </row>
     <row r="12">
@@ -1353,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="13">
@@ -1364,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="14">
@@ -1375,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="15">
@@ -1386,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="16">
@@ -1397,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="17">
@@ -1408,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>294.855</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1419,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>307.56</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1430,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>270.845</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>294.05</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1452,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>273.96</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1463,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>140.5549999999989</v>
+        <v>285.945</v>
       </c>
     </row>
     <row r="23">
@@ -1474,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>159.2149999999989</v>
+        <v>303.02</v>
       </c>
     </row>
     <row r="24">
@@ -1485,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>142.1400000000002</v>
+        <v>296.175</v>
       </c>
     </row>
     <row r="25">
@@ -1496,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>147.7249999999989</v>
+        <v>307.985</v>
       </c>
     </row>
     <row r="26">
@@ -1507,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>139.7450000000002</v>
+        <v>291.35</v>
       </c>
     </row>
     <row r="27">
@@ -1518,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>236.8400000000015</v>
+        <v>155.3650000000007</v>
       </c>
     </row>
     <row r="28">
@@ -1529,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>244.9650000000014</v>
+        <v>164.2850000000007</v>
       </c>
     </row>
     <row r="29">
@@ -1540,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>236.8400000000015</v>
+        <v>152.1250000000008</v>
       </c>
     </row>
     <row r="30">
@@ -1551,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>243.8100000000015</v>
+        <v>163.3750000000007</v>
       </c>
     </row>
     <row r="31">
@@ -1562,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>244.9650000000015</v>
+        <v>157.6200000000007</v>
       </c>
     </row>
     <row r="32">
@@ -1573,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>247.935</v>
+        <v>154.3</v>
       </c>
     </row>
     <row r="33">
@@ -1584,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>271.455</v>
+        <v>148.3449999999993</v>
       </c>
     </row>
     <row r="34">
@@ -1595,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>235.93</v>
+        <v>128.7049999999993</v>
       </c>
     </row>
     <row r="35">
@@ -1606,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>256.56</v>
+        <v>146.3249999999992</v>
       </c>
     </row>
     <row r="36">
@@ -1617,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>234.525</v>
+        <v>134.2149999999993</v>
       </c>
     </row>
     <row r="37">
@@ -1628,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>141.0250000000002</v>
+        <v>151</v>
       </c>
     </row>
     <row r="38">
@@ -1639,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>143.4</v>
+        <v>163.8800000000003</v>
       </c>
     </row>
     <row r="39">
@@ -1650,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>139.7050000000001</v>
+        <v>137.7950000000003</v>
       </c>
     </row>
     <row r="40">
@@ -1661,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>150.4250000000001</v>
+        <v>153.5400000000003</v>
       </c>
     </row>
     <row r="41">
@@ -1672,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>134.7700000000002</v>
+        <v>140.7850000000003</v>
       </c>
     </row>
     <row r="42">
@@ -1738,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>166.9600000000013</v>
+        <v>85.48500000000051</v>
       </c>
     </row>
     <row r="48">
@@ -1749,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>168.6450000000012</v>
+        <v>87.9650000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1760,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>164.4300000000013</v>
+        <v>79.71500000000052</v>
       </c>
     </row>
     <row r="50">
@@ -1771,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>171.1650000000012</v>
+        <v>90.7300000000005</v>
       </c>
     </row>
     <row r="51">
@@ -1782,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>172.0750000000012</v>
+        <v>84.73000000000052</v>
       </c>
     </row>
     <row r="52">
@@ -1793,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>57.95</v>
+        <v>213.315</v>
       </c>
     </row>
     <row r="53">
@@ -1804,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>58.67999999999927</v>
+        <v>222.965</v>
       </c>
     </row>
     <row r="54">
@@ -1815,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>61.72999999999927</v>
+        <v>213.855</v>
       </c>
     </row>
     <row r="55">
@@ -1826,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>60.65499999999928</v>
+        <v>224.03</v>
       </c>
     </row>
     <row r="56">
@@ -1837,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>52.91499999999927</v>
+        <v>210.535</v>
       </c>
     </row>
     <row r="57">
@@ -1848,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>294.855</v>
+        <v>235.775</v>
       </c>
     </row>
     <row r="58">
@@ -1859,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>307.56</v>
+        <v>229.025</v>
       </c>
     </row>
     <row r="59">
@@ -1870,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>270.845</v>
+        <v>213.42</v>
       </c>
     </row>
     <row r="60">
@@ -1881,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>294.05</v>
+        <v>226.76</v>
       </c>
     </row>
     <row r="61">
@@ -1892,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>273.96</v>
+        <v>221.56</v>
       </c>
     </row>
     <row r="62">
@@ -1903,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>236.8400000000015</v>
+        <v>285.945</v>
       </c>
     </row>
     <row r="63">
@@ -1914,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>244.9650000000014</v>
+        <v>303.02</v>
       </c>
     </row>
     <row r="64">
@@ -1925,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>236.8400000000015</v>
+        <v>296.175</v>
       </c>
     </row>
     <row r="65">
@@ -1936,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>243.8100000000015</v>
+        <v>307.985</v>
       </c>
     </row>
     <row r="66">
@@ -1947,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>244.9650000000015</v>
+        <v>291.35</v>
       </c>
     </row>
     <row r="67">
@@ -1958,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>250.970000000001</v>
+        <v>260.9450000000011</v>
       </c>
     </row>
     <row r="68">
@@ -1969,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>260.9900000000009</v>
+        <v>281.47</v>
       </c>
     </row>
     <row r="69">
@@ -1980,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>252.975000000001</v>
+        <v>251.0650000000011</v>
       </c>
     </row>
     <row r="70">
@@ -1991,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>269.580000000001</v>
+        <v>272.6950000000011</v>
       </c>
     </row>
     <row r="71">
@@ -2002,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>250.575000000001</v>
+        <v>256.5900000000011</v>
       </c>
     </row>
   </sheetData>
@@ -2049,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>19.855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2060,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>32.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2082,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>19.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2104,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>10.945</v>
       </c>
     </row>
     <row r="8">
@@ -2115,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>28.02</v>
       </c>
     </row>
     <row r="9">
@@ -2126,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>21.175</v>
       </c>
     </row>
     <row r="10">
@@ -2137,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>32.985</v>
       </c>
     </row>
     <row r="11">
@@ -2148,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="12">
@@ -2170,7 +2220,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>6.470000000000027</v>
       </c>
     </row>
     <row r="14">
@@ -2803,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2830,10 +2880,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2841,10 +2891,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -2852,12 +2902,45 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T100_C275_0_P4_res.xlsx
+++ b/results/I2_N10_T100_C275_0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>272.5632163890596</v>
+        <v>64.65006462817017</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01800012588500977</v>
+        <v>0.01399993896484375</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>40.67321638905945</v>
+        <v>42.88006464724366</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.515920931989228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.515920931989228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>231.89</v>
+        <v>21.76999998092651</v>
       </c>
     </row>
     <row r="10">
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -1039,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>35.46541289070538</v>
+        <v>32.61192465059682</v>
       </c>
     </row>
     <row r="4">
@@ -1047,7 +992,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34.69770569366315</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -1063,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>38.43347677669323</v>
+        <v>39.42087151249132</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>31.94987179065701</v>
+        <v>42.29398828700641</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30.34885527085025</v>
+        <v>39.78329726510266</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.86507964991324</v>
+        <v>32.01159140980468</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>30</v>
+        <v>37.10862152600629</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>30</v>
+        <v>34.14711948224307</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>34.87971820301381</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37.27819014430416</v>
+        <v>42.44836762064676</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>41.94939770868245</v>
+        <v>43.4791043150813</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.80207851635592</v>
+        <v>37.94859027624736</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,76 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>4</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>260.9450000000011</v>
+        <v>250.9700000000009</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>281.47</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>251.0650000000011</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="10">
@@ -1381,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>272.6950000000011</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="11">
@@ -1392,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>256.5900000000011</v>
+        <v>250.575000000001</v>
       </c>
     </row>
     <row r="12">
@@ -1403,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>235.775</v>
+        <v>81.47500000000073</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>229.025</v>
+        <v>80.68000000000075</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>213.42</v>
+        <v>84.71500000000071</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>226.76</v>
+        <v>80.43500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1447,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>221.56</v>
+        <v>87.34500000000072</v>
       </c>
     </row>
     <row r="17">
@@ -1502,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>39.43499999999941</v>
+        <v>39.43499999999942</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>285.945</v>
+        <v>187.4749999999983</v>
       </c>
     </row>
     <row r="23">
@@ -1524,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>303.02</v>
+        <v>195.3199999999983</v>
       </c>
     </row>
     <row r="24">
@@ -1535,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>296.175</v>
+        <v>177.0549999999983</v>
       </c>
     </row>
     <row r="25">
@@ -1546,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>307.985</v>
+        <v>185.2149999999983</v>
       </c>
     </row>
     <row r="26">
@@ -1557,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>291.35</v>
+        <v>179.1799999999983</v>
       </c>
     </row>
     <row r="27">
@@ -1568,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>155.3650000000007</v>
+        <v>257.3549999999985</v>
       </c>
     </row>
     <row r="28">
@@ -1579,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>164.2850000000007</v>
+        <v>271.6399999999986</v>
       </c>
     </row>
     <row r="29">
@@ -1590,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>152.1250000000008</v>
+        <v>249.4649999999985</v>
       </c>
     </row>
     <row r="30">
@@ -1601,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>163.3750000000007</v>
+        <v>257.8599999999985</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>157.6200000000007</v>
+        <v>252.0699999999985</v>
       </c>
     </row>
     <row r="32">
@@ -1623,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>154.3</v>
+        <v>274.3400000000011</v>
       </c>
     </row>
     <row r="33">
@@ -1634,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>148.3449999999993</v>
+        <v>280.8850000000011</v>
       </c>
     </row>
     <row r="34">
@@ -1645,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>128.7049999999993</v>
+        <v>258.2200000000011</v>
       </c>
     </row>
     <row r="35">
@@ -1656,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>146.3249999999992</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36">
@@ -1667,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>134.2149999999993</v>
+        <v>266.8550000000011</v>
       </c>
     </row>
     <row r="37">
@@ -1678,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>151</v>
+        <v>141.0250000000001</v>
       </c>
     </row>
     <row r="38">
@@ -1689,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>163.8800000000003</v>
+        <v>143.4</v>
       </c>
     </row>
     <row r="39">
@@ -1700,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>137.7950000000003</v>
+        <v>139.7050000000002</v>
       </c>
     </row>
     <row r="40">
@@ -1711,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>153.5400000000003</v>
+        <v>150.4250000000002</v>
       </c>
     </row>
     <row r="41">
@@ -1722,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>140.7850000000003</v>
+        <v>134.7700000000002</v>
       </c>
     </row>
     <row r="42">
@@ -1733,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>67.92499999999941</v>
+        <v>114.8449999999988</v>
       </c>
     </row>
     <row r="43">
@@ -1744,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>79.15999999999941</v>
+        <v>115.2649999999988</v>
       </c>
     </row>
     <row r="44">
@@ -1755,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>59.81999999999942</v>
+        <v>94.73499999999882</v>
       </c>
     </row>
     <row r="45">
@@ -1766,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>63.76999999999942</v>
+        <v>101.2599999999988</v>
       </c>
     </row>
     <row r="46">
@@ -1777,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>58.92999999999942</v>
+        <v>98.36499999999884</v>
       </c>
     </row>
     <row r="47">
@@ -1788,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>85.48500000000051</v>
+        <v>166.9600000000012</v>
       </c>
     </row>
     <row r="48">
@@ -1799,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>87.9650000000005</v>
+        <v>168.6450000000012</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>79.71500000000052</v>
+        <v>164.4300000000013</v>
       </c>
     </row>
     <row r="50">
@@ -1821,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>90.7300000000005</v>
+        <v>171.1650000000012</v>
       </c>
     </row>
     <row r="51">
@@ -1832,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>84.73000000000052</v>
+        <v>172.0750000000012</v>
       </c>
     </row>
     <row r="52">
@@ -1843,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>213.315</v>
+        <v>57.95</v>
       </c>
     </row>
     <row r="53">
@@ -1854,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>222.965</v>
+        <v>58.67999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1865,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>213.855</v>
+        <v>61.72999999999926</v>
       </c>
     </row>
     <row r="55">
@@ -1876,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>224.03</v>
+        <v>60.65499999999928</v>
       </c>
     </row>
     <row r="56">
@@ -1887,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>210.535</v>
+        <v>52.91499999999927</v>
       </c>
     </row>
     <row r="57">
@@ -1898,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>235.775</v>
+        <v>274.3400000000011</v>
       </c>
     </row>
     <row r="58">
@@ -1909,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>229.025</v>
+        <v>280.8850000000011</v>
       </c>
     </row>
     <row r="59">
@@ -1920,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>213.42</v>
+        <v>258.2200000000011</v>
       </c>
     </row>
     <row r="60">
@@ -1931,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>226.76</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61">
@@ -1942,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>221.56</v>
+        <v>266.8550000000011</v>
       </c>
     </row>
     <row r="62">
@@ -1953,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>285.945</v>
+        <v>257.3549999999985</v>
       </c>
     </row>
     <row r="63">
@@ -1964,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>303.02</v>
+        <v>271.6399999999986</v>
       </c>
     </row>
     <row r="64">
@@ -1975,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>296.175</v>
+        <v>249.4649999999985</v>
       </c>
     </row>
     <row r="65">
@@ -1986,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>307.985</v>
+        <v>257.8599999999985</v>
       </c>
     </row>
     <row r="66">
@@ -1997,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>291.35</v>
+        <v>252.0699999999985</v>
       </c>
     </row>
     <row r="67">
@@ -2008,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>260.9450000000011</v>
+        <v>250.9700000000009</v>
       </c>
     </row>
     <row r="68">
@@ -2019,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>281.47</v>
+        <v>260.9900000000009</v>
       </c>
     </row>
     <row r="69">
@@ -2030,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>251.0650000000011</v>
+        <v>252.975000000001</v>
       </c>
     </row>
     <row r="70">
@@ -2041,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>272.6950000000011</v>
+        <v>269.580000000001</v>
       </c>
     </row>
     <row r="71">
@@ -2052,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>256.5900000000011</v>
+        <v>250.575000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2110,7 +1985,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.884999990463257</v>
       </c>
     </row>
     <row r="4">
@@ -2132,7 +2007,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2154,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>10.945</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2165,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>28.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2176,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>21.175</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2187,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>32.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2198,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>16.35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2220,7 +2095,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>6.470000000000027</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2853,7 +2728,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2880,7 +2755,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>2</v>
@@ -2891,56 +2766,12 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B4" t="n">
-        <v>2</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" t="n">
-        <v>5</v>
-      </c>
-      <c r="C7" t="n">
         <v>1</v>
       </c>
     </row>
